--- a/database/industries/felezat/kimia/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299F94A-21D8-42B2-AB48-5798AA52B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/kimia/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299F94A-21D8-42B2-AB48-5798AA52B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E6B53-4ED9-4834-960E-F919C3358FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کیمیا-معدنی کیمیای زنجان گستران</t>
+    <t>کیمیا-ص. معدنی کیمیای زنجان گستران</t>
   </si>
   <si>
     <t>تولید و فروش</t>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,25 +61,25 @@
     <t>تن</t>
   </si>
   <si>
+    <t>کنسانتره سرب سولفوره</t>
+  </si>
+  <si>
+    <t>کنسانتره روی سولفوره</t>
+  </si>
+  <si>
+    <t>کنسانتره سرب اکسیده</t>
+  </si>
+  <si>
+    <t>کنسانتره روی اکسیده</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>کنسانتره سرب سولفوره</t>
-  </si>
-  <si>
-    <t>کنسانتره روی سولفوره</t>
-  </si>
-  <si>
-    <t>کنسانتره سرب اکسیده</t>
-  </si>
-  <si>
-    <t>کنسانتره روی اکسیده</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -787,143 +787,143 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>563</v>
+      </c>
+      <c r="F11" s="11">
+        <v>604</v>
+      </c>
+      <c r="G11" s="11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="11">
+        <v>987</v>
+      </c>
+      <c r="I11" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>563</v>
-      </c>
-      <c r="G11" s="11">
-        <v>604</v>
-      </c>
-      <c r="H11" s="11">
-        <v>50</v>
-      </c>
-      <c r="I11" s="11">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>108</v>
       </c>
       <c r="F12" s="13">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="G12" s="13">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H12" s="13">
-        <v>393</v>
+        <v>216</v>
       </c>
       <c r="I12" s="13">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H13" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>1431</v>
       </c>
       <c r="F14" s="13">
-        <v>1431</v>
+        <v>1456</v>
       </c>
       <c r="G14" s="13">
-        <v>1456</v>
+        <v>2470</v>
       </c>
       <c r="H14" s="13">
-        <v>2470</v>
+        <v>2125</v>
       </c>
       <c r="I14" s="13">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>29668</v>
       </c>
       <c r="F15" s="11">
-        <v>29668</v>
+        <v>29597</v>
       </c>
       <c r="G15" s="11">
-        <v>29597</v>
+        <v>44659</v>
       </c>
       <c r="H15" s="11">
-        <v>44659</v>
+        <v>38450</v>
       </c>
       <c r="I15" s="11">
-        <v>38450</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>31770</v>
       </c>
       <c r="F16" s="15">
-        <v>31770</v>
+        <v>32013</v>
       </c>
       <c r="G16" s="15">
-        <v>32013</v>
+        <v>48172</v>
       </c>
       <c r="H16" s="15">
-        <v>48172</v>
+        <v>41778</v>
       </c>
       <c r="I16" s="15">
-        <v>41778</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25617</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -933,7 +933,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
@@ -941,69 +941,69 @@
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>248</v>
       </c>
       <c r="F18" s="11">
-        <v>248</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="11">
+        <v>596</v>
       </c>
       <c r="I18" s="11">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>13</v>
+      <c r="E19" s="13">
+        <v>1386</v>
       </c>
       <c r="F19" s="13">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="H19" s="13">
-        <v>5470</v>
+        <v>5654</v>
       </c>
       <c r="I19" s="13">
-        <v>5654</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14622</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>1634</v>
       </c>
       <c r="F20" s="17">
-        <v>1634</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="H20" s="17">
-        <v>5470</v>
+        <v>6250</v>
       </c>
       <c r="I20" s="17">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16251</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
@@ -1023,8 +1023,8 @@
         <v>12</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
+      <c r="E22" s="11">
+        <v>0</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="11">
-        <v>0</v>
+        <v>60179</v>
       </c>
       <c r="I22" s="11">
-        <v>60179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64329</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <v>0</v>
+        <v>60179</v>
       </c>
       <c r="I23" s="15">
-        <v>60179</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64329</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
@@ -1069,8 +1069,8 @@
         <v>25</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>13</v>
+      <c r="E24" s="17">
+        <v>0</v>
       </c>
       <c r="F24" s="17">
         <v>0</v>
@@ -1078,21 +1078,21 @@
       <c r="G24" s="17">
         <v>0</v>
       </c>
-      <c r="H24" s="17">
-        <v>0</v>
+      <c r="H24" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -1107,29 +1107,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>33404</v>
       </c>
       <c r="F26" s="17">
-        <v>33404</v>
+        <v>32013</v>
       </c>
       <c r="G26" s="17">
-        <v>32013</v>
+        <v>53642</v>
       </c>
       <c r="H26" s="17">
-        <v>53642</v>
+        <v>108207</v>
       </c>
       <c r="I26" s="17">
-        <v>108207</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>106197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1139,7 +1139,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>29</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1211,141 +1211,141 @@
         <v>30</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11">
+        <v>149603</v>
+      </c>
+      <c r="F33" s="11">
+        <v>164455</v>
+      </c>
+      <c r="G33" s="11">
+        <v>26258</v>
+      </c>
+      <c r="H33" s="11">
+        <v>676261</v>
+      </c>
+      <c r="I33" s="11">
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="11">
-        <v>149603</v>
-      </c>
-      <c r="G33" s="11">
-        <v>164455</v>
-      </c>
-      <c r="H33" s="11">
-        <v>26258</v>
-      </c>
-      <c r="I33" s="11">
-        <v>676261</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
+        <v>14851</v>
+      </c>
+      <c r="F34" s="13">
+        <v>40745</v>
+      </c>
+      <c r="G34" s="13">
+        <v>128312</v>
+      </c>
+      <c r="H34" s="13">
+        <v>140661</v>
+      </c>
+      <c r="I34" s="13">
+        <v>27945</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="13">
-        <v>14851</v>
-      </c>
-      <c r="G34" s="13">
-        <v>40745</v>
-      </c>
-      <c r="H34" s="13">
-        <v>128312</v>
-      </c>
-      <c r="I34" s="13">
-        <v>140661</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>102005</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>102005</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13">
+        <v>108248</v>
+      </c>
+      <c r="F36" s="13">
+        <v>197203</v>
+      </c>
+      <c r="G36" s="13">
+        <v>483592</v>
+      </c>
+      <c r="H36" s="13">
+        <v>724221</v>
+      </c>
+      <c r="I36" s="13">
+        <v>96565</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="13">
-        <v>108248</v>
-      </c>
-      <c r="G36" s="13">
-        <v>197203</v>
-      </c>
-      <c r="H36" s="13">
-        <v>483592</v>
-      </c>
-      <c r="I36" s="13">
-        <v>724221</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
+        <v>730702</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1027145</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2637275</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3991130</v>
+      </c>
+      <c r="I37" s="11">
+        <v>3148894</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11">
-        <v>730702</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1027145</v>
-      </c>
-      <c r="H37" s="11">
-        <v>2637275</v>
-      </c>
-      <c r="I37" s="11">
-        <v>3991130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>1003404</v>
       </c>
       <c r="F38" s="15">
-        <v>1003404</v>
+        <v>1429548</v>
       </c>
       <c r="G38" s="15">
-        <v>1429548</v>
+        <v>3377442</v>
       </c>
       <c r="H38" s="15">
-        <v>3377442</v>
+        <v>5532273</v>
       </c>
       <c r="I38" s="15">
-        <v>5532273</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3294084</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1365,69 +1365,69 @@
         <v>30</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
+      <c r="E40" s="11">
+        <v>53255</v>
       </c>
       <c r="F40" s="11">
-        <v>53255</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="11">
+        <v>473676</v>
       </c>
       <c r="I40" s="11">
-        <v>473676</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1524057</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
+      <c r="E41" s="13">
+        <v>76427</v>
       </c>
       <c r="F41" s="13">
-        <v>76427</v>
+        <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="H41" s="13">
-        <v>612056</v>
+        <v>482270</v>
       </c>
       <c r="I41" s="13">
-        <v>482270</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3100134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>0</v>
+        <v>129682</v>
       </c>
       <c r="F42" s="17">
-        <v>129682</v>
+        <v>0</v>
       </c>
       <c r="G42" s="17">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="H42" s="17">
-        <v>612056</v>
+        <v>955946</v>
       </c>
       <c r="I42" s="17">
-        <v>955946</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4624191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -1447,45 +1447,45 @@
         <v>30</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>65350</v>
       </c>
       <c r="F44" s="11">
-        <v>65350</v>
+        <v>75517</v>
       </c>
       <c r="G44" s="11">
-        <v>75517</v>
+        <v>257466</v>
       </c>
       <c r="H44" s="11">
-        <v>257466</v>
+        <v>590728</v>
       </c>
       <c r="I44" s="11">
-        <v>590728</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>928404</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>0</v>
+        <v>65350</v>
       </c>
       <c r="F45" s="15">
-        <v>65350</v>
+        <v>75517</v>
       </c>
       <c r="G45" s="15">
-        <v>75517</v>
+        <v>257466</v>
       </c>
       <c r="H45" s="15">
-        <v>257466</v>
+        <v>590728</v>
       </c>
       <c r="I45" s="15">
-        <v>590728</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>928404</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
@@ -1493,23 +1493,23 @@
         <v>30</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>13</v>
+      <c r="E46" s="17">
+        <v>-12911</v>
       </c>
       <c r="F46" s="17">
-        <v>-12911</v>
+        <v>0</v>
       </c>
       <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
         <v>-172</v>
       </c>
+      <c r="H46" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I46" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
@@ -1517,8 +1517,8 @@
         <v>30</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>13</v>
+      <c r="E47" s="15">
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1533,29 +1533,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>0</v>
+        <v>1185525</v>
       </c>
       <c r="F48" s="17">
-        <v>1185525</v>
+        <v>1505065</v>
       </c>
       <c r="G48" s="17">
-        <v>1505065</v>
+        <v>4246792</v>
       </c>
       <c r="H48" s="17">
-        <v>4246792</v>
+        <v>7078947</v>
       </c>
       <c r="I48" s="17">
-        <v>7078947</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8846679</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1565,7 +1565,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1575,7 +1575,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1585,7 +1585,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1617,7 +1617,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1637,119 +1637,119 @@
         <v>35</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11">
+        <v>265724689</v>
+      </c>
+      <c r="F55" s="11">
+        <v>272276490</v>
+      </c>
+      <c r="G55" s="11">
+        <v>525160000</v>
+      </c>
+      <c r="H55" s="11">
+        <v>685168186</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1292500000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" s="11">
-        <v>265724689</v>
-      </c>
-      <c r="G55" s="11">
-        <v>272276490</v>
-      </c>
-      <c r="H55" s="11">
-        <v>525160000</v>
-      </c>
-      <c r="I55" s="11">
-        <v>685168186</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
+      <c r="E56" s="13">
+        <v>137509259</v>
       </c>
       <c r="F56" s="13">
-        <v>137509259</v>
+        <v>114452247</v>
       </c>
       <c r="G56" s="13">
-        <v>114452247</v>
+        <v>326493639</v>
       </c>
       <c r="H56" s="13">
-        <v>326493639</v>
+        <v>651208333</v>
       </c>
       <c r="I56" s="13">
-        <v>651208333</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336686747</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
+      <c r="E57" s="11">
+        <v>0</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <v>0</v>
+        <v>170008333</v>
       </c>
       <c r="H57" s="11">
-        <v>170008333</v>
+        <v>0</v>
       </c>
       <c r="I57" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>75645003</v>
       </c>
       <c r="F58" s="13">
-        <v>75645003</v>
+        <v>135441621</v>
       </c>
       <c r="G58" s="13">
-        <v>135441621</v>
+        <v>195786235</v>
       </c>
       <c r="H58" s="13">
-        <v>195786235</v>
+        <v>340809882</v>
       </c>
       <c r="I58" s="13">
-        <v>340809882</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257506667</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>24629298</v>
       </c>
       <c r="F59" s="11">
-        <v>24629298</v>
+        <v>34704362</v>
       </c>
       <c r="G59" s="11">
-        <v>34704362</v>
+        <v>59053606</v>
       </c>
       <c r="H59" s="11">
-        <v>59053606</v>
+        <v>103800520</v>
       </c>
       <c r="I59" s="11">
-        <v>103800520</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125239391</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>36</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1769,47 +1769,47 @@
         <v>35</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>214737903</v>
       </c>
       <c r="F61" s="11">
-        <v>214737903</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="11">
+        <v>794758389</v>
       </c>
       <c r="I61" s="11">
-        <v>794758389</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>935578269</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>55142136</v>
       </c>
       <c r="F62" s="13">
-        <v>55142136</v>
+        <v>0</v>
       </c>
       <c r="G62" s="13">
-        <v>0</v>
+        <v>111893236</v>
       </c>
       <c r="H62" s="13">
-        <v>111893236</v>
+        <v>85297135</v>
       </c>
       <c r="I62" s="13">
-        <v>85297135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212018465</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>22</v>
       </c>
@@ -1829,8 +1829,8 @@
         <v>35</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>0</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="H64" s="11">
-        <v>0</v>
+        <v>9816182</v>
       </c>
       <c r="I64" s="11">
-        <v>9816182</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14432122</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1875,7 +1875,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1907,7 +1907,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1927,141 +1927,141 @@
         <v>30</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="11">
+        <v>-140240</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-160481</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-13284</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-566597</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-13045</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="11">
-        <v>-140240</v>
-      </c>
-      <c r="G71" s="11">
-        <v>-160481</v>
-      </c>
-      <c r="H71" s="11">
-        <v>-13284</v>
-      </c>
-      <c r="I71" s="11">
-        <v>-566597</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="12" t="s">
+      <c r="C72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13">
+        <v>-2848</v>
+      </c>
+      <c r="F72" s="13">
+        <v>-18952</v>
+      </c>
+      <c r="G72" s="13">
+        <v>-78581</v>
+      </c>
+      <c r="H72" s="13">
+        <v>-89368</v>
+      </c>
+      <c r="I72" s="13">
+        <v>-27166</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="13">
-        <v>-2848</v>
-      </c>
-      <c r="G72" s="13">
-        <v>-18952</v>
-      </c>
-      <c r="H72" s="13">
-        <v>-78581</v>
-      </c>
-      <c r="I72" s="13">
-        <v>-89368</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+      <c r="C73" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>-53984</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="11">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <v>-53984</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
+      <c r="C74" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13">
+        <v>-52950</v>
+      </c>
+      <c r="F74" s="13">
+        <v>-102540</v>
+      </c>
+      <c r="G74" s="13">
+        <v>-284039</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-479130</v>
+      </c>
+      <c r="I74" s="13">
+        <v>-70383</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="13">
-        <v>-52950</v>
-      </c>
-      <c r="G74" s="13">
-        <v>-102540</v>
-      </c>
-      <c r="H74" s="13">
-        <v>-284039</v>
-      </c>
-      <c r="I74" s="13">
-        <v>-479130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C75" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>13</v>
+      <c r="E75" s="11">
+        <v>-429312</v>
       </c>
       <c r="F75" s="11">
-        <v>-429312</v>
+        <v>-617715</v>
       </c>
       <c r="G75" s="11">
-        <v>-617715</v>
+        <v>-1767963</v>
       </c>
       <c r="H75" s="11">
-        <v>-1767963</v>
+        <v>-2940277</v>
       </c>
       <c r="I75" s="11">
-        <v>-2940277</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2192808</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>0</v>
+        <v>-625350</v>
       </c>
       <c r="F76" s="15">
-        <v>-625350</v>
+        <v>-899688</v>
       </c>
       <c r="G76" s="15">
-        <v>-899688</v>
+        <v>-2197851</v>
       </c>
       <c r="H76" s="15">
-        <v>-2197851</v>
+        <v>-4075372</v>
       </c>
       <c r="I76" s="15">
-        <v>-4075372</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2303402</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>11</v>
       </c>
@@ -2081,69 +2081,69 @@
         <v>30</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>13</v>
+      <c r="E78" s="11">
+        <v>-61776</v>
       </c>
       <c r="F78" s="11">
-        <v>-61776</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="11">
+        <v>-342166</v>
       </c>
       <c r="I78" s="11">
-        <v>-342166</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1297153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
-        <v>13</v>
+      <c r="E79" s="13">
+        <v>-46961</v>
       </c>
       <c r="F79" s="13">
-        <v>-46961</v>
+        <v>0</v>
       </c>
       <c r="G79" s="13">
-        <v>0</v>
+        <v>-492275</v>
       </c>
       <c r="H79" s="13">
-        <v>-492275</v>
+        <v>-457350</v>
       </c>
       <c r="I79" s="13">
-        <v>-457350</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2026390</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>0</v>
+        <v>-108737</v>
       </c>
       <c r="F80" s="17">
-        <v>-108737</v>
+        <v>0</v>
       </c>
       <c r="G80" s="17">
-        <v>0</v>
+        <v>-492275</v>
       </c>
       <c r="H80" s="17">
-        <v>-492275</v>
+        <v>-799516</v>
       </c>
       <c r="I80" s="17">
-        <v>-799516</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3323543</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>43</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -2163,45 +2163,45 @@
         <v>30</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>-30012</v>
       </c>
       <c r="F82" s="11">
-        <v>-30012</v>
+        <v>-39920</v>
       </c>
       <c r="G82" s="11">
-        <v>-39920</v>
+        <v>-69105</v>
       </c>
       <c r="H82" s="11">
-        <v>-69105</v>
+        <v>-116498</v>
       </c>
       <c r="I82" s="11">
-        <v>-116498</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-158564</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>0</v>
+        <v>-30012</v>
       </c>
       <c r="F83" s="15">
-        <v>-30012</v>
+        <v>-39920</v>
       </c>
       <c r="G83" s="15">
-        <v>-39920</v>
+        <v>-69105</v>
       </c>
       <c r="H83" s="15">
-        <v>-69105</v>
+        <v>-116498</v>
       </c>
       <c r="I83" s="15">
-        <v>-116498</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-158564</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>24</v>
       </c>
@@ -2209,8 +2209,8 @@
         <v>30</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
-        <v>13</v>
+      <c r="E84" s="17">
+        <v>0</v>
       </c>
       <c r="F84" s="17">
         <v>0</v>
@@ -2218,14 +2218,14 @@
       <c r="G84" s="17">
         <v>0</v>
       </c>
-      <c r="H84" s="17">
-        <v>0</v>
+      <c r="H84" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>26</v>
       </c>
@@ -2233,8 +2233,8 @@
         <v>30</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>13</v>
+      <c r="E85" s="15">
+        <v>0</v>
       </c>
       <c r="F85" s="15">
         <v>0</v>
@@ -2249,29 +2249,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
-        <v>0</v>
+        <v>-764099</v>
       </c>
       <c r="F86" s="17">
-        <v>-764099</v>
+        <v>-939608</v>
       </c>
       <c r="G86" s="17">
-        <v>-939608</v>
+        <v>-2759231</v>
       </c>
       <c r="H86" s="17">
-        <v>-2759231</v>
+        <v>-4991386</v>
       </c>
       <c r="I86" s="17">
-        <v>-4991386</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5785509</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2281,7 +2281,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2291,7 +2291,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2333,7 +2333,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>46</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2353,141 +2353,141 @@
         <v>30</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="11">
+        <v>9363</v>
+      </c>
+      <c r="F93" s="11">
+        <v>3974</v>
+      </c>
+      <c r="G93" s="11">
+        <v>12974</v>
+      </c>
+      <c r="H93" s="11">
+        <v>109664</v>
+      </c>
+      <c r="I93" s="11">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11">
-        <v>9363</v>
-      </c>
-      <c r="G93" s="11">
-        <v>3974</v>
-      </c>
-      <c r="H93" s="11">
-        <v>12974</v>
-      </c>
-      <c r="I93" s="11">
-        <v>109664</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13">
+        <v>12003</v>
+      </c>
+      <c r="F94" s="13">
+        <v>21793</v>
+      </c>
+      <c r="G94" s="13">
+        <v>49731</v>
+      </c>
+      <c r="H94" s="13">
+        <v>51293</v>
+      </c>
+      <c r="I94" s="13">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="13">
-        <v>12003</v>
-      </c>
-      <c r="G94" s="13">
-        <v>21793</v>
-      </c>
-      <c r="H94" s="13">
-        <v>49731</v>
-      </c>
-      <c r="I94" s="13">
-        <v>51293</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
+      <c r="C95" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>48021</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>48021</v>
-      </c>
-      <c r="I95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="C96" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13">
+        <v>55298</v>
+      </c>
+      <c r="F96" s="13">
+        <v>94663</v>
+      </c>
+      <c r="G96" s="13">
+        <v>199553</v>
+      </c>
+      <c r="H96" s="13">
+        <v>245091</v>
+      </c>
+      <c r="I96" s="13">
+        <v>26182</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13">
-        <v>55298</v>
-      </c>
-      <c r="G96" s="13">
-        <v>94663</v>
-      </c>
-      <c r="H96" s="13">
-        <v>199553</v>
-      </c>
-      <c r="I96" s="13">
-        <v>245091</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C97" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>13</v>
+      <c r="E97" s="11">
+        <v>301390</v>
       </c>
       <c r="F97" s="11">
-        <v>301390</v>
+        <v>409430</v>
       </c>
       <c r="G97" s="11">
-        <v>409430</v>
+        <v>869312</v>
       </c>
       <c r="H97" s="11">
-        <v>869312</v>
+        <v>1050853</v>
       </c>
       <c r="I97" s="11">
-        <v>1050853</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>956086</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>0</v>
+        <v>378054</v>
       </c>
       <c r="F98" s="15">
-        <v>378054</v>
+        <v>529860</v>
       </c>
       <c r="G98" s="15">
-        <v>529860</v>
+        <v>1179591</v>
       </c>
       <c r="H98" s="15">
-        <v>1179591</v>
+        <v>1456901</v>
       </c>
       <c r="I98" s="15">
-        <v>1456901</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>990682</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>11</v>
       </c>
@@ -2507,69 +2507,69 @@
         <v>30</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>13</v>
+      <c r="E100" s="11">
+        <v>-8521</v>
       </c>
       <c r="F100" s="11">
-        <v>-8521</v>
-      </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="11">
+        <v>131510</v>
       </c>
       <c r="I100" s="11">
-        <v>131510</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>226904</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="13" t="s">
-        <v>13</v>
+      <c r="E101" s="13">
+        <v>29466</v>
       </c>
       <c r="F101" s="13">
-        <v>29466</v>
+        <v>0</v>
       </c>
       <c r="G101" s="13">
-        <v>0</v>
+        <v>119781</v>
       </c>
       <c r="H101" s="13">
-        <v>119781</v>
+        <v>24920</v>
       </c>
       <c r="I101" s="13">
-        <v>24920</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1073744</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
-        <v>0</v>
+        <v>20945</v>
       </c>
       <c r="F102" s="17">
-        <v>20945</v>
+        <v>0</v>
       </c>
       <c r="G102" s="17">
-        <v>0</v>
+        <v>119781</v>
       </c>
       <c r="H102" s="17">
-        <v>119781</v>
+        <v>156430</v>
       </c>
       <c r="I102" s="17">
-        <v>156430</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1300648</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>50</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>22</v>
       </c>
@@ -2589,64 +2589,64 @@
         <v>30</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>13</v>
+      <c r="E104" s="11">
+        <v>35338</v>
       </c>
       <c r="F104" s="11">
-        <v>35338</v>
+        <v>35597</v>
       </c>
       <c r="G104" s="11">
-        <v>35597</v>
+        <v>188361</v>
       </c>
       <c r="H104" s="11">
-        <v>188361</v>
+        <v>474230</v>
       </c>
       <c r="I104" s="11">
-        <v>474230</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>769840</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>0</v>
+        <v>35338</v>
       </c>
       <c r="F105" s="15">
-        <v>35338</v>
+        <v>35597</v>
       </c>
       <c r="G105" s="15">
-        <v>35597</v>
+        <v>188361</v>
       </c>
       <c r="H105" s="15">
-        <v>188361</v>
+        <v>474230</v>
       </c>
       <c r="I105" s="15">
-        <v>474230</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>769840</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>0</v>
+        <v>434337</v>
       </c>
       <c r="F106" s="17">
-        <v>434337</v>
+        <v>565457</v>
       </c>
       <c r="G106" s="17">
-        <v>565457</v>
+        <v>1487733</v>
       </c>
       <c r="H106" s="17">
-        <v>1487733</v>
+        <v>2087561</v>
       </c>
       <c r="I106" s="17">
-        <v>2087561</v>
+        <v>3061170</v>
       </c>
     </row>
   </sheetData>
